--- a/Test/MC_Ssf/T1/Sensors_data_1000005.xlsx
+++ b/Test/MC_Ssf/T1/Sensors_data_1000005.xlsx
@@ -475,13 +475,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.4022832041235791</v>
+        <v>0.151485275432988</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03483008766591542</v>
+        <v>0.02107551609801968</v>
       </c>
       <c r="E2" t="n">
-        <v>0.349301403300353</v>
+        <v>0.2821818644737156</v>
       </c>
       <c r="F2" t="n">
         <v>3</v>
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.5692715499859913</v>
+        <v>0.6780301169060463</v>
       </c>
       <c r="D3" t="n">
-        <v>0.06755163302385485</v>
+        <v>0.01385967354578649</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7429576652218405</v>
+        <v>0.2155692684959422</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
@@ -525,13 +525,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.4384834220322571</v>
+        <v>-0.04849005803498363</v>
       </c>
       <c r="D4" t="n">
-        <v>0.06669020746224447</v>
+        <v>0.04860954142500072</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4755287248763083</v>
+        <v>0.4859146511919679</v>
       </c>
       <c r="F4" t="n">
         <v>2</v>
@@ -550,13 +550,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.0160667929846674</v>
+        <v>0.1427941468702338</v>
       </c>
       <c r="D5" t="n">
-        <v>0.036316582562685</v>
+        <v>0.03163912643301902</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1374465164207604</v>
+        <v>0.3111419707345455</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -575,13 +575,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.94026947391941</v>
+        <v>0.1129533040824655</v>
       </c>
       <c r="D6" t="n">
-        <v>0.002632126424671476</v>
+        <v>0.03908920951226624</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01232995893771949</v>
+        <v>0.4440056251636263</v>
       </c>
       <c r="F6" t="n">
         <v>2</v>
